--- a/resources/AP2/Notes_ApresRats.xlsx
+++ b/resources/AP2/Notes_ApresRats.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GestionScolarite-XML\resources\AP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCB2862-F58A-4E5C-BA76-4014B4C38CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6675684-4272-4CA5-BF21-4A73831628C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7B301CA2-AA96-4639-A977-2BC5594F1189}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>CNE</t>
   </si>
@@ -70,64 +70,304 @@
     <t>Note_AP43</t>
   </si>
   <si>
-    <t>AP2_LN1</t>
-  </si>
-  <si>
-    <t>AP2_FN1</t>
-  </si>
-  <si>
-    <t>AP2_LN2</t>
-  </si>
-  <si>
-    <t>AP2_FN2</t>
-  </si>
-  <si>
-    <t>AP2_LN3</t>
-  </si>
-  <si>
-    <t>AP2_FN3</t>
-  </si>
-  <si>
-    <t>AP2_LN4</t>
-  </si>
-  <si>
-    <t>AP2_FN4</t>
-  </si>
-  <si>
-    <t>AP2_LN5</t>
-  </si>
-  <si>
-    <t>AP2_FN5</t>
-  </si>
-  <si>
-    <t>AP2_LN6</t>
-  </si>
-  <si>
-    <t>AP2_FN6</t>
-  </si>
-  <si>
-    <t>AP2_LN7</t>
-  </si>
-  <si>
-    <t>AP2_FN7</t>
-  </si>
-  <si>
-    <t>AP2_LN8</t>
-  </si>
-  <si>
-    <t>AP2_FN8</t>
-  </si>
-  <si>
-    <t>AP2_LN9</t>
-  </si>
-  <si>
-    <t>AP2_FN9</t>
-  </si>
-  <si>
-    <t>AP2_LN10</t>
-  </si>
-  <si>
-    <t>AP2_FN10</t>
+    <t>Bo Alvarado</t>
+  </si>
+  <si>
+    <t>Imelda Becker</t>
+  </si>
+  <si>
+    <t>Lacota Gay</t>
+  </si>
+  <si>
+    <t>Cairo Hoover</t>
+  </si>
+  <si>
+    <t>Rudyard Guy</t>
+  </si>
+  <si>
+    <t>Lesley Mcgowan</t>
+  </si>
+  <si>
+    <t>Lester Finley</t>
+  </si>
+  <si>
+    <t>Herman Shields</t>
+  </si>
+  <si>
+    <t>Eagan Delacruz</t>
+  </si>
+  <si>
+    <t>Driscoll Harrell</t>
+  </si>
+  <si>
+    <t>Jesse Crawford</t>
+  </si>
+  <si>
+    <t>Sierra Strickland</t>
+  </si>
+  <si>
+    <t>Vernon Sloan</t>
+  </si>
+  <si>
+    <t>Olga Holden</t>
+  </si>
+  <si>
+    <t>Virginia Schultz</t>
+  </si>
+  <si>
+    <t>Brynne Sexton</t>
+  </si>
+  <si>
+    <t>Pearl Ortega</t>
+  </si>
+  <si>
+    <t>Laith Hancock</t>
+  </si>
+  <si>
+    <t>Teegan Nash</t>
+  </si>
+  <si>
+    <t>Serena Blackwell</t>
+  </si>
+  <si>
+    <t>John Lee</t>
+  </si>
+  <si>
+    <t>Sylvester Chase</t>
+  </si>
+  <si>
+    <t>Shellie Russo</t>
+  </si>
+  <si>
+    <t>Karleigh Martinez</t>
+  </si>
+  <si>
+    <t>Roth Mcleod</t>
+  </si>
+  <si>
+    <t>Karleigh Maxwell</t>
+  </si>
+  <si>
+    <t>Amir Perez</t>
+  </si>
+  <si>
+    <t>Emery Ayers</t>
+  </si>
+  <si>
+    <t>Dacey Todd</t>
+  </si>
+  <si>
+    <t>Madaline Jacobson</t>
+  </si>
+  <si>
+    <t>Charles Haley</t>
+  </si>
+  <si>
+    <t>Eve Daniel</t>
+  </si>
+  <si>
+    <t>Adena Cooper</t>
+  </si>
+  <si>
+    <t>Leilani Orr</t>
+  </si>
+  <si>
+    <t>Maite Sandoval</t>
+  </si>
+  <si>
+    <t>Alfonso Guerra</t>
+  </si>
+  <si>
+    <t>Rashad Rasmussen</t>
+  </si>
+  <si>
+    <t>Raven Fowler</t>
+  </si>
+  <si>
+    <t>Oprah Lee</t>
+  </si>
+  <si>
+    <t>Ezekiel Berry</t>
+  </si>
+  <si>
+    <t>Channing Suarez</t>
+  </si>
+  <si>
+    <t>Caldwell Melendez</t>
+  </si>
+  <si>
+    <t>Erasmus Battle</t>
+  </si>
+  <si>
+    <t>Eliana Chavez</t>
+  </si>
+  <si>
+    <t>Sacha Meadows</t>
+  </si>
+  <si>
+    <t>Aaron Horn</t>
+  </si>
+  <si>
+    <t>Wing Stephenson</t>
+  </si>
+  <si>
+    <t>Sierra Osborn</t>
+  </si>
+  <si>
+    <t>Tucker Combs</t>
+  </si>
+  <si>
+    <t>Moana Lyons</t>
+  </si>
+  <si>
+    <t>Tyrone Baker</t>
+  </si>
+  <si>
+    <t>Jenna Cunningham</t>
+  </si>
+  <si>
+    <t>Lucy Barnes</t>
+  </si>
+  <si>
+    <t>Ryder Molina</t>
+  </si>
+  <si>
+    <t>August Mayer</t>
+  </si>
+  <si>
+    <t>Leonard Moss</t>
+  </si>
+  <si>
+    <t>Vaughan Ellis</t>
+  </si>
+  <si>
+    <t>Salvador Holden</t>
+  </si>
+  <si>
+    <t>Desirae Park</t>
+  </si>
+  <si>
+    <t>Lance Farrell</t>
+  </si>
+  <si>
+    <t>Kitra Blanchard</t>
+  </si>
+  <si>
+    <t>Bevis Whitfield</t>
+  </si>
+  <si>
+    <t>Ursula Hudson</t>
+  </si>
+  <si>
+    <t>Adria Wilcox</t>
+  </si>
+  <si>
+    <t>Hasad Foreman</t>
+  </si>
+  <si>
+    <t>Randall Nixon</t>
+  </si>
+  <si>
+    <t>Owen Cannon</t>
+  </si>
+  <si>
+    <t>Graiden Myers</t>
+  </si>
+  <si>
+    <t>Cyrus Spencer</t>
+  </si>
+  <si>
+    <t>Lucas Calderon</t>
+  </si>
+  <si>
+    <t>Kimberley Valencia</t>
+  </si>
+  <si>
+    <t>Jade Murray</t>
+  </si>
+  <si>
+    <t>Risa Webster</t>
+  </si>
+  <si>
+    <t>Hasad Church</t>
+  </si>
+  <si>
+    <t>Jemima Knight</t>
+  </si>
+  <si>
+    <t>Gabriel Walsh</t>
+  </si>
+  <si>
+    <t>Carlos Gill</t>
+  </si>
+  <si>
+    <t>Octavia Marquez</t>
+  </si>
+  <si>
+    <t>Denise Sanchez</t>
+  </si>
+  <si>
+    <t>Minerva O'brien</t>
+  </si>
+  <si>
+    <t>Tamara Wong</t>
+  </si>
+  <si>
+    <t>Zane Booth</t>
+  </si>
+  <si>
+    <t>Medge Keller</t>
+  </si>
+  <si>
+    <t>Carl Hayes</t>
+  </si>
+  <si>
+    <t>Amery Foley</t>
+  </si>
+  <si>
+    <t>Acton Sweet</t>
+  </si>
+  <si>
+    <t>Tiger Solis</t>
+  </si>
+  <si>
+    <t>Cameron Clay</t>
+  </si>
+  <si>
+    <t>Colette Hinton</t>
+  </si>
+  <si>
+    <t>Chandler Spears</t>
+  </si>
+  <si>
+    <t>Emery Cummings</t>
+  </si>
+  <si>
+    <t>Constance Salinas</t>
+  </si>
+  <si>
+    <t>Dale Mccray</t>
+  </si>
+  <si>
+    <t>Caryn Riley</t>
+  </si>
+  <si>
+    <t>Ferris Wilkerson</t>
+  </si>
+  <si>
+    <t>Aline Aguirre</t>
+  </si>
+  <si>
+    <t>Jenna Mcmahon</t>
+  </si>
+  <si>
+    <t>Velma Baird</t>
+  </si>
+  <si>
+    <t>Kylee Maddox</t>
+  </si>
+  <si>
+    <t>Octavius Holloway</t>
   </si>
 </sst>
 </file>
@@ -151,7 +391,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -159,12 +399,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,22 +735,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203498FD-2502-4E6E-B9A0-0F0016EA2E4E}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -526,7 +782,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>20000001</v>
       </c>
       <c r="B2" t="s">
@@ -536,36 +792,36 @@
         <v>13</v>
       </c>
       <c r="D2">
-        <v>10.199999999999999</v>
+        <v>16</v>
       </c>
       <c r="E2">
-        <v>10.73</v>
+        <v>11</v>
       </c>
       <c r="F2">
-        <v>15.06</v>
+        <v>9</v>
       </c>
       <c r="G2">
-        <v>16.89</v>
+        <v>12</v>
       </c>
       <c r="H2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I2">
-        <v>13.84</v>
+        <v>16</v>
       </c>
       <c r="J2">
-        <v>19.32</v>
+        <v>9</v>
       </c>
       <c r="K2">
-        <v>15.76</v>
+        <v>8</v>
       </c>
       <c r="L2">
-        <v>11.44</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <f>$A2+1</f>
+      <c r="A3" s="1">
+        <f>A2+1</f>
         <v>20000002</v>
       </c>
       <c r="B3" t="s">
@@ -575,36 +831,36 @@
         <v>15</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E3">
-        <v>14.89</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>12.89</v>
+        <v>13</v>
       </c>
       <c r="G3">
-        <v>10.99</v>
+        <v>17</v>
       </c>
       <c r="H3">
-        <v>12.11</v>
+        <v>16</v>
       </c>
       <c r="I3">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J3">
-        <v>16.350000000000001</v>
+        <v>16</v>
       </c>
       <c r="K3">
-        <v>11.46</v>
+        <v>18</v>
       </c>
       <c r="L3">
-        <v>18.64</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <f t="shared" ref="A4:A11" si="0">$A3+1</f>
+      <c r="A4" s="1">
+        <f t="shared" ref="A4:A51" si="0">A3+1</f>
         <v>20000003</v>
       </c>
       <c r="B4" t="s">
@@ -614,35 +870,35 @@
         <v>17</v>
       </c>
       <c r="D4">
-        <v>10.52</v>
+        <v>14</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F4">
-        <v>15.77</v>
+        <v>12</v>
       </c>
       <c r="G4">
-        <v>19.45</v>
+        <v>16</v>
       </c>
       <c r="H4">
-        <v>14.98</v>
+        <v>17</v>
       </c>
       <c r="I4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J4">
-        <v>12.39</v>
+        <v>12</v>
       </c>
       <c r="K4">
-        <v>17.97</v>
+        <v>19</v>
       </c>
       <c r="L4">
-        <v>10.98</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>20000004</v>
       </c>
@@ -653,35 +909,35 @@
         <v>19</v>
       </c>
       <c r="D5">
-        <v>15.57</v>
+        <v>15</v>
       </c>
       <c r="E5">
-        <v>13.96</v>
+        <v>16</v>
       </c>
       <c r="F5">
-        <v>16.260000000000002</v>
+        <v>8</v>
       </c>
       <c r="G5">
-        <v>12.91</v>
+        <v>14</v>
       </c>
       <c r="H5">
-        <v>14.16</v>
+        <v>15</v>
       </c>
       <c r="I5">
-        <v>11.45</v>
+        <v>14</v>
       </c>
       <c r="J5">
-        <v>13.09</v>
+        <v>15</v>
       </c>
       <c r="K5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L5">
-        <v>17.3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>20000005</v>
       </c>
@@ -692,35 +948,35 @@
         <v>21</v>
       </c>
       <c r="D6">
-        <v>17.66</v>
+        <v>19</v>
       </c>
       <c r="E6">
-        <v>10.67</v>
+        <v>14</v>
       </c>
       <c r="F6">
-        <v>13.67</v>
+        <v>7</v>
       </c>
       <c r="G6">
-        <v>15.67</v>
+        <v>11</v>
       </c>
       <c r="H6">
-        <v>17.93</v>
+        <v>13</v>
       </c>
       <c r="I6">
-        <v>15.91</v>
+        <v>7</v>
       </c>
       <c r="J6">
-        <v>10.78</v>
+        <v>13</v>
       </c>
       <c r="K6">
-        <v>16.87</v>
+        <v>18</v>
       </c>
       <c r="L6">
-        <v>12.89</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>20000006</v>
       </c>
@@ -731,35 +987,35 @@
         <v>23</v>
       </c>
       <c r="D7">
-        <v>12.65</v>
+        <v>10</v>
       </c>
       <c r="E7">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F7">
-        <v>11.85</v>
+        <v>13</v>
       </c>
       <c r="G7">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H7">
-        <v>16.71</v>
+        <v>11</v>
       </c>
       <c r="I7">
-        <v>11.29</v>
+        <v>10</v>
       </c>
       <c r="J7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K7">
-        <v>12.78</v>
+        <v>10</v>
       </c>
       <c r="L7">
-        <v>16.22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8">
+      <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>20000007</v>
       </c>
@@ -770,35 +1026,35 @@
         <v>25</v>
       </c>
       <c r="D8">
-        <v>11.45</v>
+        <v>16</v>
       </c>
       <c r="E8">
-        <v>12.72</v>
+        <v>19</v>
       </c>
       <c r="F8">
-        <v>14.11</v>
+        <v>11</v>
       </c>
       <c r="G8">
-        <v>13.87</v>
+        <v>13</v>
       </c>
       <c r="H8">
-        <v>10.56</v>
+        <v>18</v>
       </c>
       <c r="I8">
-        <v>13.17</v>
+        <v>12</v>
       </c>
       <c r="J8">
-        <v>13.82</v>
+        <v>10</v>
       </c>
       <c r="K8">
-        <v>10.83</v>
+        <v>10</v>
       </c>
       <c r="L8">
-        <v>13.67</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9">
+      <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>20000008</v>
       </c>
@@ -809,35 +1065,35 @@
         <v>27</v>
       </c>
       <c r="D9">
-        <v>14.69</v>
+        <v>17</v>
       </c>
       <c r="E9">
-        <v>17.559999999999999</v>
+        <v>13</v>
       </c>
       <c r="F9">
-        <v>12.78</v>
+        <v>8</v>
       </c>
       <c r="G9">
-        <v>15.65</v>
+        <v>14</v>
       </c>
       <c r="H9">
-        <v>12.07</v>
+        <v>11</v>
       </c>
       <c r="I9">
-        <v>14.63</v>
+        <v>11</v>
       </c>
       <c r="J9">
         <v>10</v>
       </c>
       <c r="K9">
-        <v>15.92</v>
+        <v>9</v>
       </c>
       <c r="L9">
-        <v>15.32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10">
+      <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>20000009</v>
       </c>
@@ -848,35 +1104,35 @@
         <v>29</v>
       </c>
       <c r="D10">
-        <v>17.149999999999999</v>
+        <v>18</v>
       </c>
       <c r="E10">
-        <v>10.95</v>
+        <v>16</v>
       </c>
       <c r="F10">
-        <v>17.829999999999998</v>
+        <v>7</v>
       </c>
       <c r="G10">
-        <v>14.99</v>
+        <v>14</v>
       </c>
       <c r="H10">
-        <v>13.47</v>
+        <v>15</v>
       </c>
       <c r="I10">
-        <v>13.78</v>
+        <v>15</v>
       </c>
       <c r="J10">
-        <v>15.78</v>
+        <v>11</v>
       </c>
       <c r="K10">
-        <v>16.32</v>
+        <v>14</v>
       </c>
       <c r="L10">
-        <v>14.56</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11">
+      <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>20000010</v>
       </c>
@@ -887,31 +1143,1591 @@
         <v>31</v>
       </c>
       <c r="D11">
-        <v>11.85</v>
+        <v>13</v>
       </c>
       <c r="E11">
-        <v>11.39</v>
+        <v>10</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G11">
-        <v>10.82</v>
+        <v>15</v>
       </c>
       <c r="H11">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="I11">
-        <v>17.68</v>
+        <v>16</v>
       </c>
       <c r="J11">
-        <v>18.55</v>
+        <v>19</v>
       </c>
       <c r="K11">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="L11">
-        <v>13.89</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>20000011</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>18</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>15</v>
+      </c>
+      <c r="H12">
+        <v>15</v>
+      </c>
+      <c r="I12">
+        <v>12</v>
+      </c>
+      <c r="J12">
+        <v>14</v>
+      </c>
+      <c r="K12">
+        <v>17</v>
+      </c>
+      <c r="L12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>20000012</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <v>17</v>
+      </c>
+      <c r="F13">
+        <v>15</v>
+      </c>
+      <c r="G13">
+        <v>13</v>
+      </c>
+      <c r="H13">
+        <v>7</v>
+      </c>
+      <c r="I13">
+        <v>11</v>
+      </c>
+      <c r="J13">
+        <v>9</v>
+      </c>
+      <c r="K13">
+        <v>7</v>
+      </c>
+      <c r="L13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>20000013</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14">
+        <v>11</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>14</v>
+      </c>
+      <c r="G14">
+        <v>12</v>
+      </c>
+      <c r="H14">
+        <v>14</v>
+      </c>
+      <c r="I14">
+        <v>16</v>
+      </c>
+      <c r="J14">
+        <v>14</v>
+      </c>
+      <c r="K14">
+        <v>6</v>
+      </c>
+      <c r="L14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>20000014</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>11</v>
+      </c>
+      <c r="F15">
+        <v>9</v>
+      </c>
+      <c r="G15">
+        <v>15</v>
+      </c>
+      <c r="H15">
+        <v>13</v>
+      </c>
+      <c r="I15">
+        <v>6</v>
+      </c>
+      <c r="J15">
+        <v>10</v>
+      </c>
+      <c r="K15">
+        <v>16</v>
+      </c>
+      <c r="L15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>20000015</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>8</v>
+      </c>
+      <c r="G16">
+        <v>11</v>
+      </c>
+      <c r="H16">
+        <v>7</v>
+      </c>
+      <c r="I16">
+        <v>17</v>
+      </c>
+      <c r="J16">
+        <v>16</v>
+      </c>
+      <c r="K16">
+        <v>9</v>
+      </c>
+      <c r="L16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>20000016</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17">
+        <v>17</v>
+      </c>
+      <c r="E17">
+        <v>14</v>
+      </c>
+      <c r="F17">
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <v>13</v>
+      </c>
+      <c r="H17">
+        <v>8</v>
+      </c>
+      <c r="I17">
+        <v>7</v>
+      </c>
+      <c r="J17">
+        <v>11</v>
+      </c>
+      <c r="K17">
+        <v>18</v>
+      </c>
+      <c r="L17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>20000017</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>18</v>
+      </c>
+      <c r="F18">
+        <v>14</v>
+      </c>
+      <c r="G18">
+        <v>11</v>
+      </c>
+      <c r="H18">
+        <v>15</v>
+      </c>
+      <c r="I18">
+        <v>8</v>
+      </c>
+      <c r="J18">
+        <v>13</v>
+      </c>
+      <c r="K18">
+        <v>19</v>
+      </c>
+      <c r="L18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>20000018</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19">
+        <v>13</v>
+      </c>
+      <c r="E19">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <v>9</v>
+      </c>
+      <c r="G19">
+        <v>12</v>
+      </c>
+      <c r="H19">
+        <v>19</v>
+      </c>
+      <c r="I19">
+        <v>11</v>
+      </c>
+      <c r="J19">
+        <v>20</v>
+      </c>
+      <c r="K19">
+        <v>16</v>
+      </c>
+      <c r="L19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>20000019</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20">
+        <v>18</v>
+      </c>
+      <c r="E20">
+        <v>16</v>
+      </c>
+      <c r="F20">
+        <v>12</v>
+      </c>
+      <c r="G20">
+        <v>14</v>
+      </c>
+      <c r="H20">
+        <v>14</v>
+      </c>
+      <c r="I20">
+        <v>9</v>
+      </c>
+      <c r="J20">
+        <v>7</v>
+      </c>
+      <c r="K20">
+        <v>20</v>
+      </c>
+      <c r="L20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>20000020</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21">
+        <v>11</v>
+      </c>
+      <c r="E21">
+        <v>9</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <v>15</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <v>12</v>
+      </c>
+      <c r="J21">
+        <v>18</v>
+      </c>
+      <c r="K21">
+        <v>14</v>
+      </c>
+      <c r="L21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>20000021</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22">
+        <v>16</v>
+      </c>
+      <c r="E22">
+        <v>12</v>
+      </c>
+      <c r="F22">
+        <v>14</v>
+      </c>
+      <c r="G22">
+        <v>11</v>
+      </c>
+      <c r="H22">
+        <v>8</v>
+      </c>
+      <c r="I22">
+        <v>8</v>
+      </c>
+      <c r="J22">
+        <v>8</v>
+      </c>
+      <c r="K22">
+        <v>11</v>
+      </c>
+      <c r="L22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <f t="shared" si="0"/>
+        <v>20000022</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23">
+        <v>19</v>
+      </c>
+      <c r="E23">
+        <v>13</v>
+      </c>
+      <c r="F23">
+        <v>11</v>
+      </c>
+      <c r="G23">
+        <v>11</v>
+      </c>
+      <c r="H23">
+        <v>18</v>
+      </c>
+      <c r="I23">
+        <v>10</v>
+      </c>
+      <c r="J23">
+        <v>8</v>
+      </c>
+      <c r="K23">
+        <v>13</v>
+      </c>
+      <c r="L23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <f t="shared" si="0"/>
+        <v>20000023</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24">
+        <v>14</v>
+      </c>
+      <c r="E24">
+        <v>17</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+      <c r="G24">
+        <v>16</v>
+      </c>
+      <c r="H24">
+        <v>15</v>
+      </c>
+      <c r="I24">
+        <v>10</v>
+      </c>
+      <c r="J24">
+        <v>13</v>
+      </c>
+      <c r="K24">
+        <v>12</v>
+      </c>
+      <c r="L24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <f t="shared" si="0"/>
+        <v>20000024</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25">
+        <v>15</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>13</v>
+      </c>
+      <c r="G25">
+        <v>17</v>
+      </c>
+      <c r="H25">
+        <v>11</v>
+      </c>
+      <c r="I25">
+        <v>9</v>
+      </c>
+      <c r="J25">
+        <v>10</v>
+      </c>
+      <c r="K25">
+        <v>18</v>
+      </c>
+      <c r="L25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <f t="shared" si="0"/>
+        <v>20000025</v>
+      </c>
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26">
+        <v>15</v>
+      </c>
+      <c r="E26">
+        <v>20</v>
+      </c>
+      <c r="F26">
+        <v>7</v>
+      </c>
+      <c r="G26">
+        <v>14</v>
+      </c>
+      <c r="H26">
+        <v>8</v>
+      </c>
+      <c r="I26">
+        <v>16</v>
+      </c>
+      <c r="J26">
+        <v>16</v>
+      </c>
+      <c r="K26">
+        <v>19</v>
+      </c>
+      <c r="L26">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <f t="shared" si="0"/>
+        <v>20000026</v>
+      </c>
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27">
+        <v>9</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+      <c r="F27">
+        <v>14</v>
+      </c>
+      <c r="G27">
+        <v>13</v>
+      </c>
+      <c r="H27">
+        <v>14</v>
+      </c>
+      <c r="I27">
+        <v>8</v>
+      </c>
+      <c r="J27">
+        <v>17</v>
+      </c>
+      <c r="K27">
+        <v>19</v>
+      </c>
+      <c r="L27">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <f t="shared" si="0"/>
+        <v>20000027</v>
+      </c>
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28">
+        <v>6</v>
+      </c>
+      <c r="E28">
+        <v>13</v>
+      </c>
+      <c r="F28">
+        <v>9</v>
+      </c>
+      <c r="G28">
+        <v>14</v>
+      </c>
+      <c r="H28">
+        <v>16</v>
+      </c>
+      <c r="I28">
+        <v>11</v>
+      </c>
+      <c r="J28">
+        <v>10</v>
+      </c>
+      <c r="K28">
+        <v>9</v>
+      </c>
+      <c r="L28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <f t="shared" si="0"/>
+        <v>20000028</v>
+      </c>
+      <c r="B29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29">
+        <v>12</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <v>14</v>
+      </c>
+      <c r="G29">
+        <v>12</v>
+      </c>
+      <c r="H29">
+        <v>8</v>
+      </c>
+      <c r="I29">
+        <v>11</v>
+      </c>
+      <c r="J29">
+        <v>6</v>
+      </c>
+      <c r="K29">
+        <v>9</v>
+      </c>
+      <c r="L29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <f t="shared" si="0"/>
+        <v>20000029</v>
+      </c>
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
+      <c r="E30">
+        <v>19</v>
+      </c>
+      <c r="F30">
+        <v>9</v>
+      </c>
+      <c r="G30">
+        <v>15</v>
+      </c>
+      <c r="H30">
+        <v>10</v>
+      </c>
+      <c r="I30">
+        <v>10</v>
+      </c>
+      <c r="J30">
+        <v>12</v>
+      </c>
+      <c r="K30">
+        <v>19</v>
+      </c>
+      <c r="L30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <f t="shared" si="0"/>
+        <v>20000030</v>
+      </c>
+      <c r="B31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31">
+        <v>14</v>
+      </c>
+      <c r="E31">
+        <v>17</v>
+      </c>
+      <c r="F31">
+        <v>11</v>
+      </c>
+      <c r="G31">
+        <v>11</v>
+      </c>
+      <c r="H31">
+        <v>14</v>
+      </c>
+      <c r="I31">
+        <v>13</v>
+      </c>
+      <c r="J31">
+        <v>10</v>
+      </c>
+      <c r="K31">
+        <v>6</v>
+      </c>
+      <c r="L31">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <f t="shared" si="0"/>
+        <v>20000031</v>
+      </c>
+      <c r="B32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32">
+        <v>17</v>
+      </c>
+      <c r="E32">
+        <v>8</v>
+      </c>
+      <c r="F32">
+        <v>7</v>
+      </c>
+      <c r="G32">
+        <v>14</v>
+      </c>
+      <c r="H32">
+        <v>14</v>
+      </c>
+      <c r="I32">
+        <v>10</v>
+      </c>
+      <c r="J32">
+        <v>6</v>
+      </c>
+      <c r="K32">
+        <v>12</v>
+      </c>
+      <c r="L32">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <f t="shared" si="0"/>
+        <v>20000032</v>
+      </c>
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33">
+        <v>18</v>
+      </c>
+      <c r="E33">
+        <v>6</v>
+      </c>
+      <c r="F33">
+        <v>13</v>
+      </c>
+      <c r="G33">
+        <v>11</v>
+      </c>
+      <c r="H33">
+        <v>17</v>
+      </c>
+      <c r="I33">
+        <v>15</v>
+      </c>
+      <c r="J33">
+        <v>8</v>
+      </c>
+      <c r="K33">
+        <v>7</v>
+      </c>
+      <c r="L33">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <f t="shared" si="0"/>
+        <v>20000033</v>
+      </c>
+      <c r="B34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34">
+        <v>8</v>
+      </c>
+      <c r="E34">
+        <v>15</v>
+      </c>
+      <c r="F34">
+        <v>13</v>
+      </c>
+      <c r="G34">
+        <v>14</v>
+      </c>
+      <c r="H34">
+        <v>8</v>
+      </c>
+      <c r="I34">
+        <v>11</v>
+      </c>
+      <c r="J34">
+        <v>10</v>
+      </c>
+      <c r="K34">
+        <v>9</v>
+      </c>
+      <c r="L34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <f t="shared" si="0"/>
+        <v>20000034</v>
+      </c>
+      <c r="B35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35">
+        <v>13</v>
+      </c>
+      <c r="E35">
+        <v>17</v>
+      </c>
+      <c r="F35">
+        <v>10</v>
+      </c>
+      <c r="G35">
+        <v>13</v>
+      </c>
+      <c r="H35">
+        <v>9</v>
+      </c>
+      <c r="I35">
+        <v>17</v>
+      </c>
+      <c r="J35">
+        <v>17</v>
+      </c>
+      <c r="K35">
+        <v>17</v>
+      </c>
+      <c r="L35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <f t="shared" si="0"/>
+        <v>20000035</v>
+      </c>
+      <c r="B36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36">
+        <v>13</v>
+      </c>
+      <c r="E36">
+        <v>6</v>
+      </c>
+      <c r="F36">
+        <v>14</v>
+      </c>
+      <c r="G36">
+        <v>13</v>
+      </c>
+      <c r="H36">
+        <v>13</v>
+      </c>
+      <c r="I36">
+        <v>15</v>
+      </c>
+      <c r="J36">
+        <v>7</v>
+      </c>
+      <c r="K36">
+        <v>20</v>
+      </c>
+      <c r="L36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <f t="shared" si="0"/>
+        <v>20000036</v>
+      </c>
+      <c r="B37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37">
+        <v>12</v>
+      </c>
+      <c r="E37">
+        <v>9</v>
+      </c>
+      <c r="F37">
+        <v>9</v>
+      </c>
+      <c r="G37">
+        <v>16</v>
+      </c>
+      <c r="H37">
+        <v>10</v>
+      </c>
+      <c r="I37">
+        <v>11</v>
+      </c>
+      <c r="J37">
+        <v>14</v>
+      </c>
+      <c r="K37">
+        <v>17</v>
+      </c>
+      <c r="L37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <f t="shared" si="0"/>
+        <v>20000037</v>
+      </c>
+      <c r="B38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38">
+        <v>17</v>
+      </c>
+      <c r="E38">
+        <v>15</v>
+      </c>
+      <c r="F38">
+        <v>12</v>
+      </c>
+      <c r="G38">
+        <v>14</v>
+      </c>
+      <c r="H38">
+        <v>11</v>
+      </c>
+      <c r="I38">
+        <v>15</v>
+      </c>
+      <c r="J38">
+        <v>12</v>
+      </c>
+      <c r="K38">
+        <v>15</v>
+      </c>
+      <c r="L38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <f t="shared" si="0"/>
+        <v>20000038</v>
+      </c>
+      <c r="B39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39">
+        <v>9</v>
+      </c>
+      <c r="E39">
+        <v>11</v>
+      </c>
+      <c r="F39">
+        <v>8</v>
+      </c>
+      <c r="G39">
+        <v>16</v>
+      </c>
+      <c r="H39">
+        <v>12</v>
+      </c>
+      <c r="I39">
+        <v>8</v>
+      </c>
+      <c r="J39">
+        <v>6</v>
+      </c>
+      <c r="K39">
+        <v>17</v>
+      </c>
+      <c r="L39">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <f t="shared" si="0"/>
+        <v>20000039</v>
+      </c>
+      <c r="B40" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40">
+        <v>8</v>
+      </c>
+      <c r="E40">
+        <v>10</v>
+      </c>
+      <c r="F40">
+        <v>14</v>
+      </c>
+      <c r="G40">
+        <v>18</v>
+      </c>
+      <c r="H40">
+        <v>17</v>
+      </c>
+      <c r="I40">
+        <v>17</v>
+      </c>
+      <c r="J40">
+        <v>20</v>
+      </c>
+      <c r="K40">
+        <v>8</v>
+      </c>
+      <c r="L40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <f t="shared" si="0"/>
+        <v>20000040</v>
+      </c>
+      <c r="B41" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41">
+        <v>11</v>
+      </c>
+      <c r="E41">
+        <v>20</v>
+      </c>
+      <c r="F41">
+        <v>9</v>
+      </c>
+      <c r="G41">
+        <v>13</v>
+      </c>
+      <c r="H41">
+        <v>15</v>
+      </c>
+      <c r="I41">
+        <v>8</v>
+      </c>
+      <c r="J41">
+        <v>13</v>
+      </c>
+      <c r="K41">
+        <v>6</v>
+      </c>
+      <c r="L41">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <f t="shared" si="0"/>
+        <v>20000041</v>
+      </c>
+      <c r="B42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42">
+        <v>17</v>
+      </c>
+      <c r="E42">
+        <v>9</v>
+      </c>
+      <c r="F42">
+        <v>13</v>
+      </c>
+      <c r="G42">
+        <v>12</v>
+      </c>
+      <c r="H42">
+        <v>15</v>
+      </c>
+      <c r="I42">
+        <v>12</v>
+      </c>
+      <c r="J42">
+        <v>8</v>
+      </c>
+      <c r="K42">
+        <v>9</v>
+      </c>
+      <c r="L42">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <f t="shared" si="0"/>
+        <v>20000042</v>
+      </c>
+      <c r="B43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" t="s">
+        <v>95</v>
+      </c>
+      <c r="D43">
+        <v>7</v>
+      </c>
+      <c r="E43">
+        <v>5</v>
+      </c>
+      <c r="F43">
+        <v>10</v>
+      </c>
+      <c r="G43">
+        <v>17</v>
+      </c>
+      <c r="H43">
+        <v>9</v>
+      </c>
+      <c r="I43">
+        <v>15</v>
+      </c>
+      <c r="J43">
+        <v>19</v>
+      </c>
+      <c r="K43">
+        <v>9</v>
+      </c>
+      <c r="L43">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <f t="shared" si="0"/>
+        <v>20000043</v>
+      </c>
+      <c r="B44" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44">
+        <v>13</v>
+      </c>
+      <c r="E44">
+        <v>18</v>
+      </c>
+      <c r="F44">
+        <v>8</v>
+      </c>
+      <c r="G44">
+        <v>11</v>
+      </c>
+      <c r="H44">
+        <v>14</v>
+      </c>
+      <c r="I44">
+        <v>17</v>
+      </c>
+      <c r="J44">
+        <v>12</v>
+      </c>
+      <c r="K44">
+        <v>9</v>
+      </c>
+      <c r="L44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <f t="shared" si="0"/>
+        <v>20000044</v>
+      </c>
+      <c r="B45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45">
+        <v>17</v>
+      </c>
+      <c r="E45">
+        <v>7</v>
+      </c>
+      <c r="F45">
+        <v>13</v>
+      </c>
+      <c r="G45">
+        <v>15</v>
+      </c>
+      <c r="H45">
+        <v>11</v>
+      </c>
+      <c r="I45">
+        <v>9</v>
+      </c>
+      <c r="J45">
+        <v>11</v>
+      </c>
+      <c r="K45">
+        <v>13</v>
+      </c>
+      <c r="L45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <f t="shared" si="0"/>
+        <v>20000045</v>
+      </c>
+      <c r="B46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" t="s">
+        <v>101</v>
+      </c>
+      <c r="D46">
+        <v>14</v>
+      </c>
+      <c r="E46">
+        <v>18</v>
+      </c>
+      <c r="F46">
+        <v>7</v>
+      </c>
+      <c r="G46">
+        <v>16</v>
+      </c>
+      <c r="H46">
+        <v>18</v>
+      </c>
+      <c r="I46">
+        <v>8</v>
+      </c>
+      <c r="J46">
+        <v>20</v>
+      </c>
+      <c r="K46">
+        <v>7</v>
+      </c>
+      <c r="L46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <f t="shared" si="0"/>
+        <v>20000046</v>
+      </c>
+      <c r="B47" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47">
+        <v>18</v>
+      </c>
+      <c r="E47">
+        <v>19</v>
+      </c>
+      <c r="F47">
+        <v>11</v>
+      </c>
+      <c r="G47">
+        <v>17</v>
+      </c>
+      <c r="H47">
+        <v>7</v>
+      </c>
+      <c r="I47">
+        <v>16</v>
+      </c>
+      <c r="J47">
+        <v>10</v>
+      </c>
+      <c r="K47">
+        <v>18</v>
+      </c>
+      <c r="L47">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <f t="shared" si="0"/>
+        <v>20000047</v>
+      </c>
+      <c r="B48" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" t="s">
+        <v>105</v>
+      </c>
+      <c r="D48">
+        <v>18</v>
+      </c>
+      <c r="E48">
+        <v>5</v>
+      </c>
+      <c r="F48">
+        <v>9</v>
+      </c>
+      <c r="G48">
+        <v>13</v>
+      </c>
+      <c r="H48">
+        <v>14</v>
+      </c>
+      <c r="I48">
+        <v>11</v>
+      </c>
+      <c r="J48">
+        <v>12</v>
+      </c>
+      <c r="K48">
+        <v>9</v>
+      </c>
+      <c r="L48">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <f t="shared" si="0"/>
+        <v>20000048</v>
+      </c>
+      <c r="B49" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" t="s">
+        <v>107</v>
+      </c>
+      <c r="D49">
+        <v>11</v>
+      </c>
+      <c r="E49">
+        <v>19</v>
+      </c>
+      <c r="F49">
+        <v>11</v>
+      </c>
+      <c r="G49">
+        <v>16</v>
+      </c>
+      <c r="H49">
+        <v>8</v>
+      </c>
+      <c r="I49">
+        <v>16</v>
+      </c>
+      <c r="J49">
+        <v>19</v>
+      </c>
+      <c r="K49">
+        <v>16</v>
+      </c>
+      <c r="L49">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <f t="shared" si="0"/>
+        <v>20000049</v>
+      </c>
+      <c r="B50" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" t="s">
+        <v>109</v>
+      </c>
+      <c r="D50">
+        <v>19</v>
+      </c>
+      <c r="E50">
+        <v>8</v>
+      </c>
+      <c r="F50">
+        <v>12</v>
+      </c>
+      <c r="G50">
+        <v>12</v>
+      </c>
+      <c r="H50">
+        <v>13</v>
+      </c>
+      <c r="I50">
+        <v>17</v>
+      </c>
+      <c r="J50">
+        <v>11</v>
+      </c>
+      <c r="K50">
+        <v>16</v>
+      </c>
+      <c r="L50">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <f t="shared" si="0"/>
+        <v>20000050</v>
+      </c>
+      <c r="B51" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" t="s">
+        <v>111</v>
+      </c>
+      <c r="D51">
+        <v>13</v>
+      </c>
+      <c r="E51">
+        <v>12</v>
+      </c>
+      <c r="F51">
+        <v>8</v>
+      </c>
+      <c r="G51">
+        <v>13</v>
+      </c>
+      <c r="H51">
+        <v>13</v>
+      </c>
+      <c r="I51">
+        <v>8</v>
+      </c>
+      <c r="J51">
+        <v>9</v>
+      </c>
+      <c r="K51">
+        <v>16</v>
+      </c>
+      <c r="L51">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/resources/AP2/Notes_ApresRats.xlsx
+++ b/resources/AP2/Notes_ApresRats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GestionScolarite-XML\resources\AP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6675684-4272-4CA5-BF21-4A73831628C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C0D1E9-D84F-4BF3-B685-BE4B01FB6CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7B301CA2-AA96-4639-A977-2BC5594F1189}"/>
   </bookViews>
@@ -737,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203498FD-2502-4E6E-B9A0-0F0016EA2E4E}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -798,7 +798,7 @@
         <v>11</v>
       </c>
       <c r="F2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>12</v>
@@ -810,10 +810,10 @@
         <v>16</v>
       </c>
       <c r="J2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L2">
         <v>13</v>
@@ -930,7 +930,7 @@
         <v>15</v>
       </c>
       <c r="K5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L5">
         <v>14</v>
@@ -954,7 +954,7 @@
         <v>14</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G6">
         <v>11</v>
@@ -963,7 +963,7 @@
         <v>13</v>
       </c>
       <c r="I6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J6">
         <v>13</v>
@@ -1005,7 +1005,7 @@
         <v>10</v>
       </c>
       <c r="J7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K7">
         <v>10</v>
@@ -1071,7 +1071,7 @@
         <v>13</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>14</v>
@@ -1086,7 +1086,7 @@
         <v>10</v>
       </c>
       <c r="K9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L9">
         <v>14</v>
@@ -1110,7 +1110,7 @@
         <v>16</v>
       </c>
       <c r="F10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G10">
         <v>14</v>
@@ -1128,7 +1128,7 @@
         <v>14</v>
       </c>
       <c r="L10">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
@@ -1182,7 +1182,7 @@
         <v>33</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E12">
         <v>18</v>
@@ -1221,7 +1221,7 @@
         <v>35</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13">
         <v>17</v>
@@ -1233,7 +1233,7 @@
         <v>13</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I13">
         <v>11</v>
@@ -1242,7 +1242,7 @@
         <v>9</v>
       </c>
       <c r="K13">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L13">
         <v>17</v>
@@ -1338,10 +1338,10 @@
         <v>41</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F16">
         <v>8</v>
@@ -1350,7 +1350,7 @@
         <v>11</v>
       </c>
       <c r="H16">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I16">
         <v>17</v>
@@ -1359,10 +1359,10 @@
         <v>16</v>
       </c>
       <c r="K16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L16">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
@@ -1389,10 +1389,10 @@
         <v>13</v>
       </c>
       <c r="H17">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I17">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J17">
         <v>11</v>
@@ -1416,7 +1416,7 @@
         <v>45</v>
       </c>
       <c r="D18">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E18">
         <v>18</v>
@@ -1431,7 +1431,7 @@
         <v>15</v>
       </c>
       <c r="I18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J18">
         <v>13</v>
@@ -1458,10 +1458,10 @@
         <v>13</v>
       </c>
       <c r="E19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G19">
         <v>12</v>
@@ -1509,16 +1509,16 @@
         <v>14</v>
       </c>
       <c r="I20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J20">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K20">
         <v>20</v>
       </c>
       <c r="L20">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
@@ -1584,19 +1584,19 @@
         <v>11</v>
       </c>
       <c r="H22">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I22">
         <v>8</v>
       </c>
       <c r="J22">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K22">
         <v>11</v>
       </c>
       <c r="L22">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
@@ -1734,13 +1734,13 @@
         <v>20</v>
       </c>
       <c r="F26">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G26">
         <v>14</v>
       </c>
       <c r="H26">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I26">
         <v>16</v>
@@ -1767,7 +1767,7 @@
         <v>63</v>
       </c>
       <c r="D27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27">
         <v>10</v>
@@ -1782,7 +1782,7 @@
         <v>14</v>
       </c>
       <c r="I27">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J27">
         <v>17</v>
@@ -1806,13 +1806,13 @@
         <v>65</v>
       </c>
       <c r="D28">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E28">
         <v>13</v>
       </c>
       <c r="F28">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G28">
         <v>14</v>
@@ -1827,10 +1827,10 @@
         <v>10</v>
       </c>
       <c r="K28">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L28">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
@@ -1884,13 +1884,13 @@
         <v>69</v>
       </c>
       <c r="D30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E30">
         <v>19</v>
       </c>
       <c r="F30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G30">
         <v>15</v>
@@ -1908,7 +1908,7 @@
         <v>19</v>
       </c>
       <c r="L30">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
@@ -1944,7 +1944,7 @@
         <v>10</v>
       </c>
       <c r="K31">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L31">
         <v>11</v>
@@ -1965,22 +1965,22 @@
         <v>17</v>
       </c>
       <c r="E32">
+        <v>10</v>
+      </c>
+      <c r="F32">
+        <v>10</v>
+      </c>
+      <c r="G32">
+        <v>14</v>
+      </c>
+      <c r="H32">
+        <v>14</v>
+      </c>
+      <c r="I32">
+        <v>10</v>
+      </c>
+      <c r="J32">
         <v>8</v>
-      </c>
-      <c r="F32">
-        <v>7</v>
-      </c>
-      <c r="G32">
-        <v>14</v>
-      </c>
-      <c r="H32">
-        <v>14</v>
-      </c>
-      <c r="I32">
-        <v>10</v>
-      </c>
-      <c r="J32">
-        <v>6</v>
       </c>
       <c r="K32">
         <v>12</v>
@@ -2004,7 +2004,7 @@
         <v>18</v>
       </c>
       <c r="E33">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F33">
         <v>13</v>
@@ -2019,10 +2019,10 @@
         <v>15</v>
       </c>
       <c r="J33">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K33">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L33">
         <v>13</v>
@@ -2040,7 +2040,7 @@
         <v>77</v>
       </c>
       <c r="D34">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E34">
         <v>15</v>
@@ -2052,7 +2052,7 @@
         <v>14</v>
       </c>
       <c r="H34">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I34">
         <v>11</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="K34">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L34">
         <v>15</v>
@@ -2136,7 +2136,7 @@
         <v>15</v>
       </c>
       <c r="J36">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K36">
         <v>20</v>
@@ -2160,7 +2160,7 @@
         <v>12</v>
       </c>
       <c r="E37">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F37">
         <v>9</v>
@@ -2250,10 +2250,10 @@
         <v>12</v>
       </c>
       <c r="I39">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J39">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K39">
         <v>17</v>
@@ -2274,7 +2274,7 @@
         <v>89</v>
       </c>
       <c r="D40">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E40">
         <v>10</v>
@@ -2334,7 +2334,7 @@
         <v>13</v>
       </c>
       <c r="K41">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L41">
         <v>14</v>
@@ -2373,7 +2373,7 @@
         <v>8</v>
       </c>
       <c r="K42">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L42">
         <v>17</v>
@@ -2391,10 +2391,10 @@
         <v>95</v>
       </c>
       <c r="D43">
+        <v>10</v>
+      </c>
+      <c r="E43">
         <v>7</v>
-      </c>
-      <c r="E43">
-        <v>5</v>
       </c>
       <c r="F43">
         <v>10</v>
@@ -2412,7 +2412,7 @@
         <v>19</v>
       </c>
       <c r="K43">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L43">
         <v>18</v>
@@ -2451,7 +2451,7 @@
         <v>12</v>
       </c>
       <c r="K44">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L44">
         <v>10</v>
@@ -2472,7 +2472,7 @@
         <v>17</v>
       </c>
       <c r="E45">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F45">
         <v>13</v>
@@ -2523,16 +2523,16 @@
         <v>18</v>
       </c>
       <c r="I46">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J46">
         <v>20</v>
       </c>
       <c r="K46">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L46">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
@@ -2559,7 +2559,7 @@
         <v>17</v>
       </c>
       <c r="H47">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I47">
         <v>16</v>
@@ -2667,7 +2667,7 @@
         <v>19</v>
       </c>
       <c r="E50">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F50">
         <v>12</v>
@@ -2709,7 +2709,7 @@
         <v>12</v>
       </c>
       <c r="F51">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G51">
         <v>13</v>
@@ -2718,7 +2718,7 @@
         <v>13</v>
       </c>
       <c r="I51">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J51">
         <v>9</v>
@@ -2727,7 +2727,7 @@
         <v>16</v>
       </c>
       <c r="L51">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
